--- a/budget.xlsx
+++ b/budget.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -481,6 +481,16 @@
       </c>
       <c r="B6" t="n">
         <v>259.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>savings</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -1,127 +1,62 @@
 
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Budget" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5715000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +428,139 @@
         <v>80</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>76.5300000000002</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>rent</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>utilities</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>tithe</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>259.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>savings</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Remaining</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>76.5300000000002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="0000FF00"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/budget.xlsx
+++ b/budget.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,16 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>remaining</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>542.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>542.15</v>
+        <v>811.15</v>
       </c>
     </row>
   </sheetData>
